--- a/new project documentation/birthday function project plan.xlsx
+++ b/new project documentation/birthday function project plan.xlsx
@@ -30,27 +30,15 @@
     <t>FINISH DATE</t>
   </si>
   <si>
-    <t>Login function for android</t>
-  </si>
-  <si>
     <t>Testing mobile app</t>
   </si>
   <si>
     <t>Testing web app</t>
   </si>
   <si>
-    <t xml:space="preserve">Implementing push notification </t>
-  </si>
-  <si>
-    <t xml:space="preserve">retreving data from database for the push notification </t>
-  </si>
-  <si>
     <t>intergrating web app with database</t>
   </si>
   <si>
-    <t>Requirement documentation</t>
-  </si>
-  <si>
     <t>ASSIGNED TO</t>
   </si>
   <si>
@@ -97,6 +85,18 @@
   </si>
   <si>
     <t>Tumi (male)</t>
+  </si>
+  <si>
+    <t>Requirements documentation</t>
+  </si>
+  <si>
+    <t>Login function for android app</t>
+  </si>
+  <si>
+    <t>Implementing push notification for android app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retrieving data from database for the push notification </t>
   </si>
 </sst>
 </file>
@@ -514,7 +514,7 @@
   <dimension ref="A3:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>2</v>
@@ -554,134 +554,134 @@
         <v>3</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D12" s="6">
         <v>41284</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D13" s="6">
         <v>41315</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D14" s="6">
         <v>41315</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D15" s="5">
         <v>41315</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C16" s="6">
         <v>41315</v>
@@ -690,7 +690,7 @@
         <v>41374</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
